--- a/public/Reportes-Sukhavati-Yoga/assets/templates/Plantilla_Historico_Pagos.xlsx
+++ b/public/Reportes-Sukhavati-Yoga/assets/templates/Plantilla_Historico_Pagos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d354a26209d14364/Desktop/Sukhavati Yoga/Catalogos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\SukhavatiYoga\Reportes-Sukhavati-Yoga\public\Reportes-Sukhavati-Yoga\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_9BBF0316F5E8B864726002137092A625A031C377" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0868C90-2A92-4D5A-91F5-4C29471E28D0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48600504-3E6A-4A66-A870-9119C8B95815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3465" windowWidth="43200" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Histórico" sheetId="1" r:id="rId1"/>
@@ -135,10 +135,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -154,10 +155,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,32 +482,32 @@
   <dimension ref="A1:U2477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2477"/>
+      <selection activeCell="T1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.75" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="206.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -529,7 +526,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -541,25 +538,25 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q1" t="s">
@@ -574,7 +571,7 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
